--- a/src/stp/database/localization.xlsx
+++ b/src/stp/database/localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84176D29-2ACB-D947-A39E-270F7964FFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FABF5CB-F2BC-DF47-B4BB-10A0650C0FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="34200" windowHeight="19280" activeTab="3" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="34200" windowHeight="19280" activeTab="1" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
   </bookViews>
   <sheets>
     <sheet name="Fonts" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1051">
   <si>
     <t>key</t>
   </si>
@@ -3143,6 +3143,69 @@
   </si>
   <si>
     <t>خورده</t>
+  </si>
+  <si>
+    <t>title.fixtures</t>
+  </si>
+  <si>
+    <t>Fixtures</t>
+  </si>
+  <si>
+    <t>Calendario</t>
+  </si>
+  <si>
+    <t>Calendrier</t>
+  </si>
+  <si>
+    <t>Spielplan</t>
+  </si>
+  <si>
+    <t>Programma</t>
+  </si>
+  <si>
+    <t>日程</t>
+  </si>
+  <si>
+    <t>برنامه بازی‌ها</t>
+  </si>
+  <si>
+    <t>title.results</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Resultados</t>
+  </si>
+  <si>
+    <t>Risultati</t>
+  </si>
+  <si>
+    <t>Résultats</t>
+  </si>
+  <si>
+    <t>Ergebnisse</t>
+  </si>
+  <si>
+    <t>Uitslagen</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>نتایج</t>
+  </si>
+  <si>
+    <t>format.title</t>
+  </si>
+  <si>
+    <t>{year} {name} · {label}</t>
+  </si>
+  <si>
+    <t>{label} · {name} {year}</t>
+  </si>
+  <si>
+    <t>{label} · {name} ‪{year}</t>
   </si>
 </sst>
 </file>
@@ -3314,8 +3377,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6DB3C6A-52AF-47F2-804D-582AA875016F}" name="Table2" displayName="Table2" ref="A1:I4" totalsRowShown="0">
-  <autoFilter ref="A1:I4" xr:uid="{D6DB3C6A-52AF-47F2-804D-582AA875016F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6DB3C6A-52AF-47F2-804D-582AA875016F}" name="Table2" displayName="Table2" ref="A1:I7" totalsRowShown="0">
+  <autoFilter ref="A1:I7" xr:uid="{D6DB3C6A-52AF-47F2-804D-582AA875016F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{78D025C9-A7F8-40FC-AE26-8019E7FEA91C}" name="key"/>
     <tableColumn id="2" xr3:uid="{9BB7854A-7CC9-411E-A2E6-AFEB87A9DD7C}" name="en"/>
@@ -3724,7 +3787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4B28FF-857C-4B73-BD2F-84CA03D2F2FC}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="I16" sqref="I16:I17"/>
     </sheetView>
   </sheetViews>
@@ -4137,15 +4200,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0971966-DEDD-44F5-9117-3B0FACFC4D1F}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -4225,8 +4289,96 @@
         <v>727</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1050</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -4527,7 +4679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7433A8F-1C59-4D32-A472-97E0718CFA1A}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -4749,7 +4901,7 @@
   <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A99" sqref="A99"/>
@@ -7650,7 +7802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC23F0D-3FBD-1747-9B59-4A5AFE23CBEE}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/src/stp/database/localization.xlsx
+++ b/src/stp/database/localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FABF5CB-F2BC-DF47-B4BB-10A0650C0FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDF20B1-44D8-FE4D-B2BA-499684B51088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="34200" windowHeight="19280" activeTab="1" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="19760" activeTab="9" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
   </bookViews>
   <sheets>
     <sheet name="Fonts" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Match" sheetId="2" r:id="rId5"/>
     <sheet name="Country" sheetId="5" r:id="rId6"/>
     <sheet name="Club" sheetId="7" r:id="rId7"/>
+    <sheet name="Competition" sheetId="8" r:id="rId8"/>
+    <sheet name="Venue" sheetId="11" r:id="rId9"/>
+    <sheet name="Host" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="1470">
   <si>
     <t>key</t>
   </si>
@@ -3207,12 +3210,1269 @@
   <si>
     <t>{label} · {name} ‪{year}</t>
   </si>
+  <si>
+    <t>World Cup</t>
+  </si>
+  <si>
+    <t>Copa del Mundo</t>
+  </si>
+  <si>
+    <t>Coppa del Mondo</t>
+  </si>
+  <si>
+    <t>Coupe du monde</t>
+  </si>
+  <si>
+    <t>Weltmeisterschaft</t>
+  </si>
+  <si>
+    <t>Wereldkampioenschap</t>
+  </si>
+  <si>
+    <t>W杯</t>
+  </si>
+  <si>
+    <t>جام جهانی</t>
+  </si>
+  <si>
+    <t>Al Bayt</t>
+  </si>
+  <si>
+    <t>Al Thumama</t>
+  </si>
+  <si>
+    <t>アル・トゥママ</t>
+  </si>
+  <si>
+    <t>Ahmad Bin Ali</t>
+  </si>
+  <si>
+    <t>アフマド・ビン・アリ</t>
+  </si>
+  <si>
+    <t>احمد بن علی</t>
+  </si>
+  <si>
+    <t>Lusail</t>
+  </si>
+  <si>
+    <t>ルセイル</t>
+  </si>
+  <si>
+    <t>لوسیل</t>
+  </si>
+  <si>
+    <t>Stadium 974</t>
+  </si>
+  <si>
+    <t>Estadio 974</t>
+  </si>
+  <si>
+    <t>Stadio 974</t>
+  </si>
+  <si>
+    <t>Stade 974</t>
+  </si>
+  <si>
+    <t>Stadion 974</t>
+  </si>
+  <si>
+    <t>スタジアム974</t>
+  </si>
+  <si>
+    <t>استادیوم 974</t>
+  </si>
+  <si>
+    <t>Education City</t>
+  </si>
+  <si>
+    <t>شهر آموزش</t>
+  </si>
+  <si>
+    <t>Al Janoub</t>
+  </si>
+  <si>
+    <t>アル・ジャノウブ</t>
+  </si>
+  <si>
+    <t>Luzhniki Stadium</t>
+  </si>
+  <si>
+    <t>Otkrytiye Arena</t>
+  </si>
+  <si>
+    <t>Women's WC</t>
+  </si>
+  <si>
+    <t>Mundial Femenino</t>
+  </si>
+  <si>
+    <t>Mondiale Femminile</t>
+  </si>
+  <si>
+    <t>CDM Féminine</t>
+  </si>
+  <si>
+    <t>Frauen-WM</t>
+  </si>
+  <si>
+    <t>WK Vrouwen</t>
+  </si>
+  <si>
+    <t>女子W杯</t>
+  </si>
+  <si>
+    <t>جام جهانی زنان</t>
+  </si>
+  <si>
+    <t>AU/NZ</t>
+  </si>
+  <si>
+    <t>豪/新西蘭</t>
+  </si>
+  <si>
+    <t>استرالیا/نیوزیلند</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>オークランド</t>
+  </si>
+  <si>
+    <t>اوکلند</t>
+  </si>
+  <si>
+    <t>Sydney Football Stadium</t>
+  </si>
+  <si>
+    <t>Stade de football de Sydney</t>
+  </si>
+  <si>
+    <t>استادیوم فوتبال سیدنی</t>
+  </si>
+  <si>
+    <t>Dunedin</t>
+  </si>
+  <si>
+    <t>ダニーデン</t>
+  </si>
+  <si>
+    <t>دوندین</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>メルボルン</t>
+  </si>
+  <si>
+    <t>ملبورن</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>ウェリントン</t>
+  </si>
+  <si>
+    <t>ولینگتون</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>ハミルトン</t>
+  </si>
+  <si>
+    <t>هامیلتون</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>ブリスベン</t>
+  </si>
+  <si>
+    <t>بریزبن</t>
+  </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>パース</t>
+  </si>
+  <si>
+    <t>پرت</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>Adélaïde</t>
+  </si>
+  <si>
+    <t>アデレード</t>
+  </si>
+  <si>
+    <t>Stadium Australia</t>
+  </si>
+  <si>
+    <t>Stadion Australien</t>
+  </si>
+  <si>
+    <t>Stadion Australië</t>
+  </si>
+  <si>
+    <t>استادیوم استرالیا</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Eurocopa</t>
+  </si>
+  <si>
+    <t>Europei</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>ユーロ</t>
+  </si>
+  <si>
+    <t>یورو</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Berlino</t>
+  </si>
+  <si>
+    <t>Berlijn</t>
+  </si>
+  <si>
+    <t>ベルリン</t>
+  </si>
+  <si>
+    <t>برلین</t>
+  </si>
+  <si>
+    <t>Cologne</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>Keulen</t>
+  </si>
+  <si>
+    <t>ケルン</t>
+  </si>
+  <si>
+    <t>کلن</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>ドルトムント</t>
+  </si>
+  <si>
+    <t>دورتموند</t>
+  </si>
+  <si>
+    <t>Düsseldorf</t>
+  </si>
+  <si>
+    <t>デュッセルドルフ</t>
+  </si>
+  <si>
+    <t>دوسلدورف</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Francfort</t>
+  </si>
+  <si>
+    <t>Francoforte</t>
+  </si>
+  <si>
+    <t>フランクフルト</t>
+  </si>
+  <si>
+    <t>فرانکفورت</t>
+  </si>
+  <si>
+    <t>Gelsenkirchen</t>
+  </si>
+  <si>
+    <t>ゲルゼンキルヒェン</t>
+  </si>
+  <si>
+    <t>گلزنکرخن</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Hamburgo</t>
+  </si>
+  <si>
+    <t>Amburgo</t>
+  </si>
+  <si>
+    <t>Hambourg</t>
+  </si>
+  <si>
+    <t>ハンブルク</t>
+  </si>
+  <si>
+    <t>هامبورگ</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>Lipsia</t>
+  </si>
+  <si>
+    <t>ライプツィヒ</t>
+  </si>
+  <si>
+    <t>لایپزیگ</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>München</t>
+  </si>
+  <si>
+    <t>ミュンヘン</t>
+  </si>
+  <si>
+    <t>مونیخ</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Stoccarda</t>
+  </si>
+  <si>
+    <t>シュトゥットガルト</t>
+  </si>
+  <si>
+    <t>اشتوتگارت</t>
+  </si>
+  <si>
+    <t>Copa América</t>
+  </si>
+  <si>
+    <t>コパ・アメリカ</t>
+  </si>
+  <si>
+    <t>کوپا آمریکا</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>آتلانتا، GA</t>
+  </si>
+  <si>
+    <t>Arlington, TX</t>
+  </si>
+  <si>
+    <t>Santa Clara, CA</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
+    <t>Miami, FL</t>
+  </si>
+  <si>
+    <t>Inglewood, CA</t>
+  </si>
+  <si>
+    <t>Kansas City, KS</t>
+  </si>
+  <si>
+    <t>کانزاس سیتی، KS</t>
+  </si>
+  <si>
+    <t>East Rutherford, NJ</t>
+  </si>
+  <si>
+    <t>Las Vegas, NV</t>
+  </si>
+  <si>
+    <t>لاس وگاس، NV</t>
+  </si>
+  <si>
+    <t>Glendale, AZ</t>
+  </si>
+  <si>
+    <t>گلندیل، AZ</t>
+  </si>
+  <si>
+    <t>Orlando, FL</t>
+  </si>
+  <si>
+    <t>Austin, TX</t>
+  </si>
+  <si>
+    <t>Kansas City, MO</t>
+  </si>
+  <si>
+    <t>کانزاس سیتی، MO</t>
+  </si>
+  <si>
+    <t>Charlotte, NC</t>
+  </si>
+  <si>
+    <t>شارلوت، NC</t>
+  </si>
+  <si>
+    <t>EE.UU</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>米国</t>
+  </si>
+  <si>
+    <t>آمریکا</t>
+  </si>
+  <si>
+    <t>Club World Cup</t>
+  </si>
+  <si>
+    <t>Mundial de Clubes</t>
+  </si>
+  <si>
+    <t>Mondiale per Club</t>
+  </si>
+  <si>
+    <t>CDM des Clubs</t>
+  </si>
+  <si>
+    <t>Klub-WM</t>
+  </si>
+  <si>
+    <t>WK voor Clubs</t>
+  </si>
+  <si>
+    <t>クラブW杯</t>
+  </si>
+  <si>
+    <t>جام جهانی باشگاه‌ها</t>
+  </si>
+  <si>
+    <t>ワシントンDC</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>バンクーバー</t>
+  </si>
+  <si>
+    <t>ونکوور</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>トロント</t>
+  </si>
+  <si>
+    <t>تورنتو</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>Città del Messico</t>
+  </si>
+  <si>
+    <t>Mexiko-Stadt</t>
+  </si>
+  <si>
+    <t>Mexico-Stad</t>
+  </si>
+  <si>
+    <t>メキシコシティ</t>
+  </si>
+  <si>
+    <t>مکزیکو سیتی</t>
+  </si>
+  <si>
+    <t>Guadalajara</t>
+  </si>
+  <si>
+    <t>グアダラハラ</t>
+  </si>
+  <si>
+    <t>گوادالاخارا</t>
+  </si>
+  <si>
+    <t>mens-world-cup</t>
+  </si>
+  <si>
+    <t>womens-world-cup</t>
+  </si>
+  <si>
+    <t>mens-copa-america</t>
+  </si>
+  <si>
+    <t>mens-euro</t>
+  </si>
+  <si>
+    <t>mens-club-world-cup</t>
+  </si>
+  <si>
+    <t>russia</t>
+  </si>
+  <si>
+    <t>au-nz</t>
+  </si>
+  <si>
+    <t>germany</t>
+  </si>
+  <si>
+    <t>north-america</t>
+  </si>
+  <si>
+    <t>qatar</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>América del norte</t>
+  </si>
+  <si>
+    <t>America del Nord</t>
+  </si>
+  <si>
+    <t>Amérique du Nord</t>
+  </si>
+  <si>
+    <t>Nordamerika</t>
+  </si>
+  <si>
+    <t>Noord-Amerika</t>
+  </si>
+  <si>
+    <t>北米</t>
+  </si>
+  <si>
+    <t>آمریکای شمالی</t>
+  </si>
+  <si>
+    <t>brazil</t>
+  </si>
+  <si>
+    <t>saudi-arabia</t>
+  </si>
+  <si>
+    <t>uk-ireland</t>
+  </si>
+  <si>
+    <t>UK &amp; Ireland</t>
+  </si>
+  <si>
+    <t>بریتانیا و ایرلند</t>
+  </si>
+  <si>
+    <t>R-U &amp; Irlande</t>
+  </si>
+  <si>
+    <t>UK &amp; Irlanda</t>
+  </si>
+  <si>
+    <t>UK &amp; Irland</t>
+  </si>
+  <si>
+    <t>VK &amp; Ierland</t>
+  </si>
+  <si>
+    <t>RU &amp; Irlanda</t>
+  </si>
+  <si>
+    <t>英国・アイルランド</t>
+  </si>
+  <si>
+    <t>au-adelaide</t>
+  </si>
+  <si>
+    <t>Adelaida</t>
+  </si>
+  <si>
+    <t>آدلاید</t>
+  </si>
+  <si>
+    <t>au-brisbane</t>
+  </si>
+  <si>
+    <t>au-melbourne</t>
+  </si>
+  <si>
+    <t>au-perth</t>
+  </si>
+  <si>
+    <t>au-sydney</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Sídney</t>
+  </si>
+  <si>
+    <t>シドニー</t>
+  </si>
+  <si>
+    <t>سیدنی</t>
+  </si>
+  <si>
+    <t>au-sydney_australia</t>
+  </si>
+  <si>
+    <t>Estadio Australia</t>
+  </si>
+  <si>
+    <t>スタジアム・オーストラリア</t>
+  </si>
+  <si>
+    <t>au-sydney_football</t>
+  </si>
+  <si>
+    <t>Estadio de fútbol de Sídney</t>
+  </si>
+  <si>
+    <t>シドニー・フットボール・スタジアム</t>
+  </si>
+  <si>
+    <t>ca-toronto</t>
+  </si>
+  <si>
+    <t>ca-vancouver</t>
+  </si>
+  <si>
+    <t>de-berlin</t>
+  </si>
+  <si>
+    <t>Berlín</t>
+  </si>
+  <si>
+    <t>de-cologne</t>
+  </si>
+  <si>
+    <t>de-dortmund</t>
+  </si>
+  <si>
+    <t>de-dusseldorf</t>
+  </si>
+  <si>
+    <t>de-frankfurt</t>
+  </si>
+  <si>
+    <t>Fráncfort</t>
+  </si>
+  <si>
+    <t>de-gelsenkirchen</t>
+  </si>
+  <si>
+    <t>de-hamburg</t>
+  </si>
+  <si>
+    <t>de-leipzig</t>
+  </si>
+  <si>
+    <t>de-munich</t>
+  </si>
+  <si>
+    <t>Múnich</t>
+  </si>
+  <si>
+    <t>de-stuttgart</t>
+  </si>
+  <si>
+    <t>mx-guadalajara</t>
+  </si>
+  <si>
+    <t>mx-mexico-city</t>
+  </si>
+  <si>
+    <t>mx-monterrey</t>
+  </si>
+  <si>
+    <t>nz-auckland</t>
+  </si>
+  <si>
+    <t>nz-dunedin</t>
+  </si>
+  <si>
+    <t>nz-hamilton</t>
+  </si>
+  <si>
+    <t>nz-wellington</t>
+  </si>
+  <si>
+    <t>qa-974</t>
+  </si>
+  <si>
+    <t>qa-ahmad-bin-ali</t>
+  </si>
+  <si>
+    <t>qa-al-bayt</t>
+  </si>
+  <si>
+    <t>アル・バイト</t>
+  </si>
+  <si>
+    <t>البيت</t>
+  </si>
+  <si>
+    <t>qa-al-janoub</t>
+  </si>
+  <si>
+    <t>الجنوب</t>
+  </si>
+  <si>
+    <t>qa-al-thumama</t>
+  </si>
+  <si>
+    <t>الثمامة</t>
+  </si>
+  <si>
+    <t>qa-education-city</t>
+  </si>
+  <si>
+    <t>エデュケーション・シティ</t>
+  </si>
+  <si>
+    <t>qa-khalifa</t>
+  </si>
+  <si>
+    <t>Khalifa International</t>
+  </si>
+  <si>
+    <t>ハリファ・インターナショナル</t>
+  </si>
+  <si>
+    <t>خلیفه بین‌المللی</t>
+  </si>
+  <si>
+    <t>qa-lusail</t>
+  </si>
+  <si>
+    <t>ru-ekaterinburg</t>
+  </si>
+  <si>
+    <t>Ekaterinburg</t>
+  </si>
+  <si>
+    <t>Ekaterimburgo</t>
+  </si>
+  <si>
+    <t>Ekaterinbourg</t>
+  </si>
+  <si>
+    <t>Jekaterinburg</t>
+  </si>
+  <si>
+    <t>Jekaterinenburg</t>
+  </si>
+  <si>
+    <t>エカテリンブルク</t>
+  </si>
+  <si>
+    <t>یکاترینبورگ</t>
+  </si>
+  <si>
+    <t>ru-kaliningrad</t>
+  </si>
+  <si>
+    <t>Kaliningrad</t>
+  </si>
+  <si>
+    <t>Kaliningrado</t>
+  </si>
+  <si>
+    <t>カリーニングラード</t>
+  </si>
+  <si>
+    <t>کالینینگراد</t>
+  </si>
+  <si>
+    <t>ru-kazan</t>
+  </si>
+  <si>
+    <t>Kazan</t>
+  </si>
+  <si>
+    <t>Kazán</t>
+  </si>
+  <si>
+    <t>Kasan</t>
+  </si>
+  <si>
+    <t>カザン</t>
+  </si>
+  <si>
+    <t>قازان</t>
+  </si>
+  <si>
+    <t>ru-moscow</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Moscú</t>
+  </si>
+  <si>
+    <t>Mosca</t>
+  </si>
+  <si>
+    <t>Moscou</t>
+  </si>
+  <si>
+    <t>Moskau</t>
+  </si>
+  <si>
+    <t>Moskou</t>
+  </si>
+  <si>
+    <t>モスクワ</t>
+  </si>
+  <si>
+    <t>مسکو</t>
+  </si>
+  <si>
+    <t>ru-moscow_luzhniki</t>
+  </si>
+  <si>
+    <t>Estadio Luzhniki</t>
+  </si>
+  <si>
+    <t>Stadio Lužniki</t>
+  </si>
+  <si>
+    <t>Stade Loujniki</t>
+  </si>
+  <si>
+    <t>Luschniki-Stadion</t>
+  </si>
+  <si>
+    <t>Loezjniki-stadion</t>
+  </si>
+  <si>
+    <t>ルジニキ・スタジアム</t>
+  </si>
+  <si>
+    <t>استادیوم لوژنیکی</t>
+  </si>
+  <si>
+    <t>ru-moscow_otkrytiye</t>
+  </si>
+  <si>
+    <t>オトクリティエ・アリーナ</t>
+  </si>
+  <si>
+    <t>اوتکریتیه آرنا</t>
+  </si>
+  <si>
+    <t>ru-nizhny-novgorod</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod</t>
+  </si>
+  <si>
+    <t>Nizhni Nóvgorod</t>
+  </si>
+  <si>
+    <t>Nižnij Novgorod</t>
+  </si>
+  <si>
+    <t>Nijni Novgorod</t>
+  </si>
+  <si>
+    <t>Nischni Nowgorod</t>
+  </si>
+  <si>
+    <t>Nizjni Novgorod</t>
+  </si>
+  <si>
+    <t>ニジニ・ノヴゴロド</t>
+  </si>
+  <si>
+    <t>نیژنی نووگورود</t>
+  </si>
+  <si>
+    <t>ru-rostov-on-don</t>
+  </si>
+  <si>
+    <t>Rostov-on-Don</t>
+  </si>
+  <si>
+    <t>Rostov del Don</t>
+  </si>
+  <si>
+    <t>Rostov sul Don</t>
+  </si>
+  <si>
+    <t>Rostov-sur-le-Don</t>
+  </si>
+  <si>
+    <t>Rostow am Don</t>
+  </si>
+  <si>
+    <t>Rostov aan de Don</t>
+  </si>
+  <si>
+    <t>ロストフ・ナ・ドヌ</t>
+  </si>
+  <si>
+    <t>روستوف ناداون</t>
+  </si>
+  <si>
+    <t>ru-saint-petersburg</t>
+  </si>
+  <si>
+    <t>Saint Petersburg</t>
+  </si>
+  <si>
+    <t>San Petersburgo</t>
+  </si>
+  <si>
+    <t>San Pietroburgo</t>
+  </si>
+  <si>
+    <t>Saint-Pétersbourg</t>
+  </si>
+  <si>
+    <t>Sankt Petersburg</t>
+  </si>
+  <si>
+    <t>Sint-Petersburg</t>
+  </si>
+  <si>
+    <t>サンクトペテルブルク</t>
+  </si>
+  <si>
+    <t>سنت پترزبورگ</t>
+  </si>
+  <si>
+    <t>ru-samara</t>
+  </si>
+  <si>
+    <t>Samara</t>
+  </si>
+  <si>
+    <t>サマーラ</t>
+  </si>
+  <si>
+    <t>سامارا</t>
+  </si>
+  <si>
+    <t>ru-saransk</t>
+  </si>
+  <si>
+    <t>Saransk</t>
+  </si>
+  <si>
+    <t>サランスク</t>
+  </si>
+  <si>
+    <t>سارانسک</t>
+  </si>
+  <si>
+    <t>ru-sochi</t>
+  </si>
+  <si>
+    <t>Sochi</t>
+  </si>
+  <si>
+    <t>Soči</t>
+  </si>
+  <si>
+    <t>Sotchi</t>
+  </si>
+  <si>
+    <t>Sotschi</t>
+  </si>
+  <si>
+    <t>Sotsji</t>
+  </si>
+  <si>
+    <t>ソチ</t>
+  </si>
+  <si>
+    <t>سوچی</t>
+  </si>
+  <si>
+    <t>ru-volgograd</t>
+  </si>
+  <si>
+    <t>Volgograd</t>
+  </si>
+  <si>
+    <t>Volgogrado</t>
+  </si>
+  <si>
+    <t>Wolgograd</t>
+  </si>
+  <si>
+    <t>ヴォルゴグラード</t>
+  </si>
+  <si>
+    <t>ولگوگراد</t>
+  </si>
+  <si>
+    <t>us-arlington-tx</t>
+  </si>
+  <si>
+    <t>アーリントン、TX</t>
+  </si>
+  <si>
+    <t>آرلینگتون، TX</t>
+  </si>
+  <si>
+    <t>us-atlanta-ga</t>
+  </si>
+  <si>
+    <t>アトランタ、GA</t>
+  </si>
+  <si>
+    <t>us-austin-tx</t>
+  </si>
+  <si>
+    <t>オースティン、TX</t>
+  </si>
+  <si>
+    <t>آستین، TX</t>
+  </si>
+  <si>
+    <t>us-boston-ma</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>ボストン、MA</t>
+  </si>
+  <si>
+    <t>بوستون، MA</t>
+  </si>
+  <si>
+    <t>us-charlotte-nc</t>
+  </si>
+  <si>
+    <t>シャーロット、NC</t>
+  </si>
+  <si>
+    <t>us-cincinnati-oh</t>
+  </si>
+  <si>
+    <t>Cincinnati, OH</t>
+  </si>
+  <si>
+    <t>シンシナティ、OH</t>
+  </si>
+  <si>
+    <t>سینسیناتی، OH</t>
+  </si>
+  <si>
+    <t>us-dallas-tx</t>
+  </si>
+  <si>
+    <t>Dallas, TX</t>
+  </si>
+  <si>
+    <t>ダラス、TX</t>
+  </si>
+  <si>
+    <t>دالاس، TX</t>
+  </si>
+  <si>
+    <t>us-east-rutherford-nj</t>
+  </si>
+  <si>
+    <t>イーストラザフォード、NJ</t>
+  </si>
+  <si>
+    <t>ایست رادرفورد، NJ</t>
+  </si>
+  <si>
+    <t>us-glendale-az</t>
+  </si>
+  <si>
+    <t>グレンデール、AZ</t>
+  </si>
+  <si>
+    <t>us-houston-tx</t>
+  </si>
+  <si>
+    <t>ヒューストン、TX</t>
+  </si>
+  <si>
+    <t>هیوستون، TX</t>
+  </si>
+  <si>
+    <t>us-inglewood-ca</t>
+  </si>
+  <si>
+    <t>イングルウッド、CA</t>
+  </si>
+  <si>
+    <t>اینگلوود، CA</t>
+  </si>
+  <si>
+    <t>us-kansas-city-ks</t>
+  </si>
+  <si>
+    <t>カンザスシティ、KS</t>
+  </si>
+  <si>
+    <t>us-kansas-city-mo</t>
+  </si>
+  <si>
+    <t>カンザスシティ、MO</t>
+  </si>
+  <si>
+    <t>us-las-vegas-nv</t>
+  </si>
+  <si>
+    <t>ラスベガス、NV</t>
+  </si>
+  <si>
+    <t>us-los-angeles-ca</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>Los Ángeles, CA</t>
+  </si>
+  <si>
+    <t>ロサンゼルス、CA</t>
+  </si>
+  <si>
+    <t>لس آنجلس، CA</t>
+  </si>
+  <si>
+    <t>us-miami-fl</t>
+  </si>
+  <si>
+    <t>マイアミ、FL</t>
+  </si>
+  <si>
+    <t>میامی، FL</t>
+  </si>
+  <si>
+    <t>us-nashville-tn</t>
+  </si>
+  <si>
+    <t>Nashville, TN</t>
+  </si>
+  <si>
+    <t>ナッシュビル、TN</t>
+  </si>
+  <si>
+    <t>نشویل، TN</t>
+  </si>
+  <si>
+    <t>us-orlando-fl</t>
+  </si>
+  <si>
+    <t>オーランド、FL</t>
+  </si>
+  <si>
+    <t>اورلاندو، FL</t>
+  </si>
+  <si>
+    <t>us-pasadena-ca</t>
+  </si>
+  <si>
+    <t>Pasadena, CA</t>
+  </si>
+  <si>
+    <t>パサデナ、CA</t>
+  </si>
+  <si>
+    <t>پاسادنا، CA</t>
+  </si>
+  <si>
+    <t>us-philadelphia-pa</t>
+  </si>
+  <si>
+    <t>Philadelphia, PA</t>
+  </si>
+  <si>
+    <t>フィラデルフィア、PA</t>
+  </si>
+  <si>
+    <t>فیلادلفیا، PA</t>
+  </si>
+  <si>
+    <t>us-santa-clara-ca</t>
+  </si>
+  <si>
+    <t>サンタクララ、CA</t>
+  </si>
+  <si>
+    <t>سانتا کلارا، CA</t>
+  </si>
+  <si>
+    <t>us-seattle-wa</t>
+  </si>
+  <si>
+    <t>Seattle, WA</t>
+  </si>
+  <si>
+    <t>シアトル、WA</t>
+  </si>
+  <si>
+    <t>سیاتل، WA</t>
+  </si>
+  <si>
+    <t>us-washington-dc</t>
+  </si>
+  <si>
+    <t>Washington, DC</t>
+  </si>
+  <si>
+    <t>واشنگتن، DC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3253,16 +4513,51 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3270,23 +4565,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF8EA9DB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -3341,6 +4718,118 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3371,6 +4860,24 @@
     <tableColumn id="8" xr3:uid="{5D0EB0BC-D65E-49B2-818B-FBF7F19C277F}" name="nl"/>
     <tableColumn id="9" xr3:uid="{B97752A9-A85F-4009-85EB-15E7FC611814}" name="ja"/>
     <tableColumn id="10" xr3:uid="{875492B9-DF1C-4C02-8A8E-28036624946B}" name="fa"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9C7FB29C-EA6A-4E41-8C16-FE95CB8776FE}" name="Host" displayName="Host" ref="A1:I10" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
+  <autoFilter ref="A1:I10" xr:uid="{9C7FB29C-EA6A-4E41-8C16-FE95CB8776FE}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{4C829EE4-C95B-7542-9E54-757777F7C77B}" name="key"/>
+    <tableColumn id="2" xr3:uid="{38CB6C88-216B-ED48-8172-4BEE73DE4825}" name="en"/>
+    <tableColumn id="3" xr3:uid="{0FF910C5-48F0-104C-A049-49EE97228B1B}" name="es"/>
+    <tableColumn id="4" xr3:uid="{502AE1E4-D3B0-A742-A4F0-452E87BD1A00}" name="it"/>
+    <tableColumn id="5" xr3:uid="{7C932A9B-3B27-3E4B-A4F4-627D639D348B}" name="fr"/>
+    <tableColumn id="6" xr3:uid="{57209005-DABB-2545-B73D-4D2B0153B290}" name="de"/>
+    <tableColumn id="7" xr3:uid="{E736ABB9-5AE1-F84A-8EF1-CCE0D5248FF7}" name="nl"/>
+    <tableColumn id="8" xr3:uid="{DF786FB9-839A-3A48-8E32-FF7B0D628DE9}" name="ja"/>
+    <tableColumn id="9" xr3:uid="{F20E80C9-33C4-964C-AC35-6B1AE61D36E8}" name="fa"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3483,6 +4990,42 @@
     <tableColumn id="7" xr3:uid="{15294C03-16B8-AF41-B968-8D069BF689CA}" name="nl"/>
     <tableColumn id="8" xr3:uid="{A28E6B6D-690D-5C48-B30D-750602CBF93D}" name="ja"/>
     <tableColumn id="9" xr3:uid="{AA78705B-5012-2C4D-8765-7F30AAFE5F05}" name="fa"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00C34F16-7F53-D94E-8507-5A463D8AE41D}" name="Competition" displayName="Competition" ref="A1:I6" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:I6" xr:uid="{00C34F16-7F53-D94E-8507-5A463D8AE41D}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{DE8C6A4E-E5F4-7F49-B2CA-17BFBEA37A38}" name="key"/>
+    <tableColumn id="2" xr3:uid="{C49CB15C-9B6D-9346-9EF5-68F0F41F5E4D}" name="en"/>
+    <tableColumn id="3" xr3:uid="{5B7DA01A-BAC7-C741-9227-D159A641EC31}" name="es"/>
+    <tableColumn id="4" xr3:uid="{92A4981E-1935-EA4A-BE22-614C88D50ACF}" name="it"/>
+    <tableColumn id="5" xr3:uid="{1E098F39-446D-6941-892D-C3B6F15D2182}" name="fr"/>
+    <tableColumn id="6" xr3:uid="{6E16F950-DC6B-9C4C-9FF6-13F656BD73AB}" name="de"/>
+    <tableColumn id="7" xr3:uid="{697AA7F0-FF26-1948-B40B-D669FD23B187}" name="nl"/>
+    <tableColumn id="8" xr3:uid="{BB5392A5-1374-8E47-B3A9-BBA3884FC32A}" name="ja"/>
+    <tableColumn id="9" xr3:uid="{EFEAE6A2-9259-CA43-8210-263B863112CB}" name="fa"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A92B97DC-54AE-2A49-B366-A6504207E4CF}" name="Venue" displayName="Venue" ref="A1:I71" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:I71" xr:uid="{A92B97DC-54AE-2A49-B366-A6504207E4CF}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B0B3E3B6-7AC0-B341-AA47-E0828ED515C1}" name="key"/>
+    <tableColumn id="2" xr3:uid="{DE7C602A-29DB-5043-A6A0-FEBDB18CB971}" name="en"/>
+    <tableColumn id="3" xr3:uid="{A3E7EADE-7BEA-1A40-979B-0C2C4D118999}" name="es"/>
+    <tableColumn id="4" xr3:uid="{06757E65-A66A-6B42-A688-A7136BDDD495}" name="it"/>
+    <tableColumn id="5" xr3:uid="{64037517-6AD2-1041-9A7D-2C5E1C54B032}" name="fr"/>
+    <tableColumn id="6" xr3:uid="{95E96F09-A831-314D-AA75-47BA5E21DD0A}" name="de"/>
+    <tableColumn id="7" xr3:uid="{BD8D8240-7E71-9F46-AF46-577C8B55891E}" name="nl"/>
+    <tableColumn id="8" xr3:uid="{F385C8B8-78AE-6A4E-B956-E444CAF50BA1}" name="ja"/>
+    <tableColumn id="9" xr3:uid="{B088D165-F592-334E-BC14-F5D953675365}" name="fa"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4198,12 +5741,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDE8AB2-D27F-FB41-A1D2-D652FC34FAE2}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0971966-DEDD-44F5-9117-3B0FACFC4D1F}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4900,11 +6761,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5C7B9E-E03D-420F-8955-42B4860CC822}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A99" sqref="A99"/>
+      <selection pane="bottomRight" activeCell="B61" sqref="B61:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7636,7 +9497,7 @@
         <v>170</v>
       </c>
       <c r="G94" t="s">
-        <v>170</v>
+        <v>1198</v>
       </c>
       <c r="H94" t="s">
         <v>172</v>
@@ -9045,4 +10906,2279 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD937D0-6F1E-1841-815F-6DE80D505C04}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A607C59C-9131-3A41-BBFB-E38E1FFB1A83}">
+  <dimension ref="A1:I71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B23" t="s">
+        <v>880</v>
+      </c>
+      <c r="C23" t="s">
+        <v>880</v>
+      </c>
+      <c r="D23" t="s">
+        <v>880</v>
+      </c>
+      <c r="E23" t="s">
+        <v>880</v>
+      </c>
+      <c r="F23" t="s">
+        <v>880</v>
+      </c>
+      <c r="G23" t="s">
+        <v>880</v>
+      </c>
+      <c r="H23" t="s">
+        <v>881</v>
+      </c>
+      <c r="I23" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/src/stp/database/localization.xlsx
+++ b/src/stp/database/localization.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDF20B1-44D8-FE4D-B2BA-499684B51088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D186F51-0A32-1144-B78D-2E94015B1B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="19760" activeTab="9" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fonts" sheetId="6" r:id="rId1"/>
-    <sheet name="Page" sheetId="1" r:id="rId2"/>
-    <sheet name="Stage" sheetId="4" r:id="rId3"/>
-    <sheet name="Group" sheetId="3" r:id="rId4"/>
-    <sheet name="Match" sheetId="2" r:id="rId5"/>
-    <sheet name="Country" sheetId="5" r:id="rId6"/>
-    <sheet name="Club" sheetId="7" r:id="rId7"/>
-    <sheet name="Competition" sheetId="8" r:id="rId8"/>
-    <sheet name="Venue" sheetId="11" r:id="rId9"/>
-    <sheet name="Host" sheetId="10" r:id="rId10"/>
+    <sheet name="Competition" sheetId="8" r:id="rId1"/>
+    <sheet name="Host" sheetId="10" r:id="rId2"/>
+    <sheet name="Venue" sheetId="11" r:id="rId3"/>
+    <sheet name="Page" sheetId="1" r:id="rId4"/>
+    <sheet name="Stage" sheetId="4" r:id="rId5"/>
+    <sheet name="Group" sheetId="3" r:id="rId6"/>
+    <sheet name="Match" sheetId="2" r:id="rId7"/>
+    <sheet name="Country" sheetId="5" r:id="rId8"/>
+    <sheet name="Club" sheetId="7" r:id="rId9"/>
+    <sheet name="Fonts" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4665,60 +4665,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="MS Gothic"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -4830,6 +4776,60 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="MS Gothic"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4844,6 +4844,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00C34F16-7F53-D94E-8507-5A463D8AE41D}" name="Competition" displayName="Competition" ref="A1:I6" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:I6" xr:uid="{00C34F16-7F53-D94E-8507-5A463D8AE41D}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{DE8C6A4E-E5F4-7F49-B2CA-17BFBEA37A38}" name="key"/>
+    <tableColumn id="2" xr3:uid="{C49CB15C-9B6D-9346-9EF5-68F0F41F5E4D}" name="en"/>
+    <tableColumn id="3" xr3:uid="{5B7DA01A-BAC7-C741-9227-D159A641EC31}" name="es"/>
+    <tableColumn id="4" xr3:uid="{92A4981E-1935-EA4A-BE22-614C88D50ACF}" name="it"/>
+    <tableColumn id="5" xr3:uid="{1E098F39-446D-6941-892D-C3B6F15D2182}" name="fr"/>
+    <tableColumn id="6" xr3:uid="{6E16F950-DC6B-9C4C-9FF6-13F656BD73AB}" name="de"/>
+    <tableColumn id="7" xr3:uid="{697AA7F0-FF26-1948-B40B-D669FD23B187}" name="nl"/>
+    <tableColumn id="8" xr3:uid="{BB5392A5-1374-8E47-B3A9-BBA3884FC32A}" name="ja"/>
+    <tableColumn id="9" xr3:uid="{EFEAE6A2-9259-CA43-8210-263B863112CB}" name="fa"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}" name="Table1" displayName="Table1" ref="A1:J22" totalsRowShown="0">
   <autoFilter ref="A1:J22" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
@@ -4865,8 +4883,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9C7FB29C-EA6A-4E41-8C16-FE95CB8776FE}" name="Host" displayName="Host" ref="A1:I10" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9C7FB29C-EA6A-4E41-8C16-FE95CB8776FE}" name="Host" displayName="Host" ref="A1:I10" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
   <autoFilter ref="A1:I10" xr:uid="{9C7FB29C-EA6A-4E41-8C16-FE95CB8776FE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4C829EE4-C95B-7542-9E54-757777F7C77B}" name="key"/>
@@ -4883,7 +4901,25 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A92B97DC-54AE-2A49-B366-A6504207E4CF}" name="Venue" displayName="Venue" ref="A1:I71" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:I71" xr:uid="{A92B97DC-54AE-2A49-B366-A6504207E4CF}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B0B3E3B6-7AC0-B341-AA47-E0828ED515C1}" name="key"/>
+    <tableColumn id="2" xr3:uid="{DE7C602A-29DB-5043-A6A0-FEBDB18CB971}" name="en"/>
+    <tableColumn id="3" xr3:uid="{A3E7EADE-7BEA-1A40-979B-0C2C4D118999}" name="es"/>
+    <tableColumn id="4" xr3:uid="{06757E65-A66A-6B42-A688-A7136BDDD495}" name="it"/>
+    <tableColumn id="5" xr3:uid="{64037517-6AD2-1041-9A7D-2C5E1C54B032}" name="fr"/>
+    <tableColumn id="6" xr3:uid="{95E96F09-A831-314D-AA75-47BA5E21DD0A}" name="de"/>
+    <tableColumn id="7" xr3:uid="{BD8D8240-7E71-9F46-AF46-577C8B55891E}" name="nl"/>
+    <tableColumn id="8" xr3:uid="{F385C8B8-78AE-6A4E-B956-E444CAF50BA1}" name="ja"/>
+    <tableColumn id="9" xr3:uid="{B088D165-F592-334E-BC14-F5D953675365}" name="fa"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6DB3C6A-52AF-47F2-804D-582AA875016F}" name="Table2" displayName="Table2" ref="A1:I7" totalsRowShown="0">
   <autoFilter ref="A1:I7" xr:uid="{D6DB3C6A-52AF-47F2-804D-582AA875016F}"/>
   <tableColumns count="9">
@@ -4901,7 +4937,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7351F86F-FDC9-496A-8B76-65576F630D1F}" name="Table3" displayName="Table3" ref="A1:I9" totalsRowShown="0">
   <autoFilter ref="A1:I9" xr:uid="{7351F86F-FDC9-496A-8B76-65576F630D1F}"/>
   <tableColumns count="9">
@@ -4919,7 +4955,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DAC35E49-099B-4ABA-B147-F62078DC2770}" name="Table4" displayName="Table4" ref="A1:I5" totalsRowShown="0">
   <autoFilter ref="A1:I5" xr:uid="{DAC35E49-099B-4ABA-B147-F62078DC2770}"/>
   <tableColumns count="9">
@@ -4930,14 +4966,14 @@
     <tableColumn id="5" xr3:uid="{0318B88A-79B0-4BA8-931F-32E598CDDD83}" name="fr"/>
     <tableColumn id="6" xr3:uid="{7FB94F46-D9D6-4FFA-A68A-D9C22DD62960}" name="de"/>
     <tableColumn id="7" xr3:uid="{8DA7014B-3E29-4B6A-905E-FD5A34D770FA}" name="nl"/>
-    <tableColumn id="8" xr3:uid="{21D35627-DEB2-4E21-A7A7-5800DA843F2D}" name="ja" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{21D35627-DEB2-4E21-A7A7-5800DA843F2D}" name="ja" dataDxfId="10"/>
     <tableColumn id="9" xr3:uid="{0E0ECA8B-5B6D-4A0F-9BA3-F5F697D5FD39}" name="fa"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D0574641-9580-4C09-8594-7E1FA61261E7}" name="Table5" displayName="Table5" ref="A1:J2" totalsRowShown="0">
   <autoFilter ref="A1:J2" xr:uid="{D0574641-9580-4C09-8594-7E1FA61261E7}"/>
   <tableColumns count="10">
@@ -4956,7 +4992,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1B6050B0-65A6-4FEE-8DCA-04DFBBE79E70}" name="Table6" displayName="Table6" ref="A1:I99" totalsRowShown="0">
   <autoFilter ref="A1:I99" xr:uid="{1B6050B0-65A6-4FEE-8DCA-04DFBBE79E70}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I99">
@@ -4977,11 +5013,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA8C5955-F911-B84D-96F6-FB2E611CA222}" name="Table8" displayName="Table8" ref="A1:I42" totalsRowShown="0" dataDxfId="1">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA8C5955-F911-B84D-96F6-FB2E611CA222}" name="Table8" displayName="Table8" ref="A1:I42" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A1:I42" xr:uid="{BA8C5955-F911-B84D-96F6-FB2E611CA222}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D098A691-2771-6641-BDA7-287210E02E79}" name="key" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D098A691-2771-6641-BDA7-287210E02E79}" name="key" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{E3E8593F-CDB5-CA4C-B2DF-C5D167E6F581}" name="en"/>
     <tableColumn id="3" xr3:uid="{583B6CFD-84CD-BB44-88B6-0A0D3BA2E05E}" name="es"/>
     <tableColumn id="4" xr3:uid="{3139A9B8-E0C7-184A-8291-97B79E51FC05}" name="it"/>
@@ -4990,42 +5026,6 @@
     <tableColumn id="7" xr3:uid="{15294C03-16B8-AF41-B968-8D069BF689CA}" name="nl"/>
     <tableColumn id="8" xr3:uid="{A28E6B6D-690D-5C48-B30D-750602CBF93D}" name="ja"/>
     <tableColumn id="9" xr3:uid="{AA78705B-5012-2C4D-8765-7F30AAFE5F05}" name="fa"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00C34F16-7F53-D94E-8507-5A463D8AE41D}" name="Competition" displayName="Competition" ref="A1:I6" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:I6" xr:uid="{00C34F16-7F53-D94E-8507-5A463D8AE41D}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DE8C6A4E-E5F4-7F49-B2CA-17BFBEA37A38}" name="key"/>
-    <tableColumn id="2" xr3:uid="{C49CB15C-9B6D-9346-9EF5-68F0F41F5E4D}" name="en"/>
-    <tableColumn id="3" xr3:uid="{5B7DA01A-BAC7-C741-9227-D159A641EC31}" name="es"/>
-    <tableColumn id="4" xr3:uid="{92A4981E-1935-EA4A-BE22-614C88D50ACF}" name="it"/>
-    <tableColumn id="5" xr3:uid="{1E098F39-446D-6941-892D-C3B6F15D2182}" name="fr"/>
-    <tableColumn id="6" xr3:uid="{6E16F950-DC6B-9C4C-9FF6-13F656BD73AB}" name="de"/>
-    <tableColumn id="7" xr3:uid="{697AA7F0-FF26-1948-B40B-D669FD23B187}" name="nl"/>
-    <tableColumn id="8" xr3:uid="{BB5392A5-1374-8E47-B3A9-BBA3884FC32A}" name="ja"/>
-    <tableColumn id="9" xr3:uid="{EFEAE6A2-9259-CA43-8210-263B863112CB}" name="fa"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A92B97DC-54AE-2A49-B366-A6504207E4CF}" name="Venue" displayName="Venue" ref="A1:I71" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:I71" xr:uid="{A92B97DC-54AE-2A49-B366-A6504207E4CF}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B0B3E3B6-7AC0-B341-AA47-E0828ED515C1}" name="key"/>
-    <tableColumn id="2" xr3:uid="{DE7C602A-29DB-5043-A6A0-FEBDB18CB971}" name="en"/>
-    <tableColumn id="3" xr3:uid="{A3E7EADE-7BEA-1A40-979B-0C2C4D118999}" name="es"/>
-    <tableColumn id="4" xr3:uid="{06757E65-A66A-6B42-A688-A7136BDDD495}" name="it"/>
-    <tableColumn id="5" xr3:uid="{64037517-6AD2-1041-9A7D-2C5E1C54B032}" name="fr"/>
-    <tableColumn id="6" xr3:uid="{95E96F09-A831-314D-AA75-47BA5E21DD0A}" name="de"/>
-    <tableColumn id="7" xr3:uid="{BD8D8240-7E71-9F46-AF46-577C8B55891E}" name="nl"/>
-    <tableColumn id="8" xr3:uid="{F385C8B8-78AE-6A4E-B956-E444CAF50BA1}" name="ja"/>
-    <tableColumn id="9" xr3:uid="{B088D165-F592-334E-BC14-F5D953675365}" name="fa"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5327,10 +5327,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD937D0-6F1E-1841-815F-6DE80D505C04}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4B28FF-857C-4B73-BD2F-84CA03D2F2FC}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="I16" sqref="I16:I17"/>
     </sheetView>
   </sheetViews>
@@ -5741,11 +5929,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDE8AB2-D27F-FB41-A1D2-D652FC34FAE2}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -6059,7 +6247,2094 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A607C59C-9131-3A41-BBFB-E38E1FFB1A83}">
+  <dimension ref="A1:I71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B23" t="s">
+        <v>880</v>
+      </c>
+      <c r="C23" t="s">
+        <v>880</v>
+      </c>
+      <c r="D23" t="s">
+        <v>880</v>
+      </c>
+      <c r="E23" t="s">
+        <v>880</v>
+      </c>
+      <c r="F23" t="s">
+        <v>880</v>
+      </c>
+      <c r="G23" t="s">
+        <v>880</v>
+      </c>
+      <c r="H23" t="s">
+        <v>881</v>
+      </c>
+      <c r="I23" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0971966-DEDD-44F5-9117-3B0FACFC4D1F}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -6246,7 +8521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FFD52D-082F-46A8-9C50-9791DEE86EEF}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -6536,7 +8811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7433A8F-1C59-4D32-A472-97E0718CFA1A}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -6672,7 +8947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E988A0-3272-4A07-B301-DE09586F293E}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -6757,7 +9032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5C7B9E-E03D-420F-8955-42B4860CC822}">
   <dimension ref="A1:I99"/>
   <sheetViews>
@@ -9659,7 +11934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC23F0D-3FBD-1747-9B59-4A5AFE23CBEE}">
   <dimension ref="A1:I42"/>
   <sheetViews>
@@ -10906,2279 +13181,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD937D0-6F1E-1841-815F-6DE80D505C04}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1174</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1175</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1207</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A607C59C-9131-3A41-BBFB-E38E1FFB1A83}">
-  <dimension ref="A1:I71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1114</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1262</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1271</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1210</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1132</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1144</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1147</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1150</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1152</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1152</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1153</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1159</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1172</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1223</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1221</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B23" t="s">
-        <v>880</v>
-      </c>
-      <c r="C23" t="s">
-        <v>880</v>
-      </c>
-      <c r="D23" t="s">
-        <v>880</v>
-      </c>
-      <c r="E23" t="s">
-        <v>880</v>
-      </c>
-      <c r="F23" t="s">
-        <v>880</v>
-      </c>
-      <c r="G23" t="s">
-        <v>880</v>
-      </c>
-      <c r="H23" t="s">
-        <v>881</v>
-      </c>
-      <c r="I23" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1073</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1062</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1297</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1315</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1319</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1321</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1327</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1341</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1342</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1343</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1355</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1364</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1365</v>
-      </c>
-      <c r="I43" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1372</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1374</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1378</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1381</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1381</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1381</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1388</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1389</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I47" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1395</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1396</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1179</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1399</v>
-      </c>
-      <c r="I49" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G50" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1402</v>
-      </c>
-      <c r="I50" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G51" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1404</v>
-      </c>
-      <c r="I51" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1407</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1408</v>
-      </c>
-      <c r="I52" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G53" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H53" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I53" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1413</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1417</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1417</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1417</v>
-      </c>
-      <c r="H55" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I55" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1186</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1421</v>
-      </c>
-      <c r="I56" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1424</v>
-      </c>
-      <c r="I57" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1181</v>
-      </c>
-      <c r="H58" t="s">
-        <v>1426</v>
-      </c>
-      <c r="I58" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1183</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1429</v>
-      </c>
-      <c r="I59" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1432</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G61" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I61" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G62" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H62" t="s">
-        <v>1436</v>
-      </c>
-      <c r="I62" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G63" t="s">
-        <v>1438</v>
-      </c>
-      <c r="H63" t="s">
-        <v>1440</v>
-      </c>
-      <c r="I63" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G64" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H64" t="s">
-        <v>1443</v>
-      </c>
-      <c r="I64" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1446</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G65" t="s">
-        <v>1446</v>
-      </c>
-      <c r="H65" t="s">
-        <v>1447</v>
-      </c>
-      <c r="I65" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G66" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H66" t="s">
-        <v>1450</v>
-      </c>
-      <c r="I66" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1453</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1453</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G67" t="s">
-        <v>1453</v>
-      </c>
-      <c r="H67" t="s">
-        <v>1454</v>
-      </c>
-      <c r="I67" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1457</v>
-      </c>
-      <c r="G68" t="s">
-        <v>1457</v>
-      </c>
-      <c r="H68" t="s">
-        <v>1458</v>
-      </c>
-      <c r="I68" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G69" t="s">
-        <v>1180</v>
-      </c>
-      <c r="H69" t="s">
-        <v>1461</v>
-      </c>
-      <c r="I69" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="G70" t="s">
-        <v>1464</v>
-      </c>
-      <c r="H70" t="s">
-        <v>1465</v>
-      </c>
-      <c r="I70" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1468</v>
-      </c>
-      <c r="G71" t="s">
-        <v>1468</v>
-      </c>
-      <c r="H71" t="s">
-        <v>1209</v>
-      </c>
-      <c r="I71" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/src/stp/database/localization.xlsx
+++ b/src/stp/database/localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D186F51-0A32-1144-B78D-2E94015B1B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B3FB7F-D59A-344F-B5AA-0FA235FB7F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="19760" activeTab="9" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="34200" windowHeight="19300" activeTab="2" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
   </bookViews>
   <sheets>
     <sheet name="Competition" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="1470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1470">
   <si>
     <t>key</t>
   </si>
@@ -3862,18 +3862,12 @@
     <t>Estadio Australia</t>
   </si>
   <si>
-    <t>スタジアム・オーストラリア</t>
-  </si>
-  <si>
     <t>au-sydney_football</t>
   </si>
   <si>
     <t>Estadio de fútbol de Sídney</t>
   </si>
   <si>
-    <t>シドニー・フットボール・スタジアム</t>
-  </si>
-  <si>
     <t>ca-toronto</t>
   </si>
   <si>
@@ -3979,9 +3973,6 @@
     <t>Khalifa International</t>
   </si>
   <si>
-    <t>ハリファ・インターナショナル</t>
-  </si>
-  <si>
     <t>خلیفه بین‌المللی</t>
   </si>
   <si>
@@ -4321,9 +4312,6 @@
     <t>us-east-rutherford-nj</t>
   </si>
   <si>
-    <t>イーストラザフォード、NJ</t>
-  </si>
-  <si>
     <t>ایست رادرفورد، NJ</t>
   </si>
   <si>
@@ -4466,6 +4454,18 @@
   </si>
   <si>
     <t>واشنگتن، DC</t>
+  </si>
+  <si>
+    <t>final.team.name</t>
+  </si>
+  <si>
+    <t>シドニーSFS</t>
+  </si>
+  <si>
+    <t>ハリファ</t>
+  </si>
+  <si>
+    <t>ラザフォード、NJ</t>
   </si>
 </sst>
 </file>
@@ -4667,46 +4667,15 @@
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4737,44 +4706,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4830,6 +4761,75 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4844,7 +4844,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00C34F16-7F53-D94E-8507-5A463D8AE41D}" name="Competition" displayName="Competition" ref="A1:I6" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00C34F16-7F53-D94E-8507-5A463D8AE41D}" name="Competition" displayName="Competition" ref="A1:I6" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A1:I6" xr:uid="{00C34F16-7F53-D94E-8507-5A463D8AE41D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DE8C6A4E-E5F4-7F49-B2CA-17BFBEA37A38}" name="key"/>
@@ -4862,10 +4862,10 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}" name="Table1" displayName="Table1" ref="A1:J22" totalsRowShown="0">
-  <autoFilter ref="A1:J22" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
-    <sortCondition ref="A1:A22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}" name="Table1" displayName="Table1" ref="A1:J23" totalsRowShown="0">
+  <autoFilter ref="A1:J23" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
+    <sortCondition ref="A1:A23"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4614A9ED-E890-4F3B-BD19-53C40876125F}" name="key"/>
@@ -4884,7 +4884,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9C7FB29C-EA6A-4E41-8C16-FE95CB8776FE}" name="Host" displayName="Host" ref="A1:I10" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9C7FB29C-EA6A-4E41-8C16-FE95CB8776FE}" name="Host" displayName="Host" ref="A1:I10" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
   <autoFilter ref="A1:I10" xr:uid="{9C7FB29C-EA6A-4E41-8C16-FE95CB8776FE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4C829EE4-C95B-7542-9E54-757777F7C77B}" name="key"/>
@@ -4902,7 +4902,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A92B97DC-54AE-2A49-B366-A6504207E4CF}" name="Venue" displayName="Venue" ref="A1:I71" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A92B97DC-54AE-2A49-B366-A6504207E4CF}" name="Venue" displayName="Venue" ref="A1:I71" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
   <autoFilter ref="A1:I71" xr:uid="{A92B97DC-54AE-2A49-B366-A6504207E4CF}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B0B3E3B6-7AC0-B341-AA47-E0828ED515C1}" name="key"/>
@@ -4966,7 +4966,7 @@
     <tableColumn id="5" xr3:uid="{0318B88A-79B0-4BA8-931F-32E598CDDD83}" name="fr"/>
     <tableColumn id="6" xr3:uid="{7FB94F46-D9D6-4FFA-A68A-D9C22DD62960}" name="de"/>
     <tableColumn id="7" xr3:uid="{8DA7014B-3E29-4B6A-905E-FD5A34D770FA}" name="nl"/>
-    <tableColumn id="8" xr3:uid="{21D35627-DEB2-4E21-A7A7-5800DA843F2D}" name="ja" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{21D35627-DEB2-4E21-A7A7-5800DA843F2D}" name="ja" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{0E0ECA8B-5B6D-4A0F-9BA3-F5F697D5FD39}" name="fa"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5014,10 +5014,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA8C5955-F911-B84D-96F6-FB2E611CA222}" name="Table8" displayName="Table8" ref="A1:I42" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA8C5955-F911-B84D-96F6-FB2E611CA222}" name="Table8" displayName="Table8" ref="A1:I42" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:I42" xr:uid="{BA8C5955-F911-B84D-96F6-FB2E611CA222}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D098A691-2771-6641-BDA7-287210E02E79}" name="key" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{D098A691-2771-6641-BDA7-287210E02E79}" name="key" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E3E8593F-CDB5-CA4C-B2DF-C5D167E6F581}" name="en"/>
     <tableColumn id="3" xr3:uid="{583B6CFD-84CD-BB44-88B6-0A0D3BA2E05E}" name="es"/>
     <tableColumn id="4" xr3:uid="{3139A9B8-E0C7-184A-8291-97B79E51FC05}" name="it"/>
@@ -5516,10 +5516,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4B28FF-857C-4B73-BD2F-84CA03D2F2FC}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:I17"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5684,61 +5684,61 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>657</v>
+        <v>1466</v>
       </c>
       <c r="B9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C9" t="s">
         <v>670</v>
       </c>
       <c r="I9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B10" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C10" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J10" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="B11" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C11" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="I11" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="J11" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B12" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C12" t="s">
         <v>670</v>
@@ -5752,109 +5752,109 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B13" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C13" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I13" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="J13" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B14" t="s">
         <v>660</v>
       </c>
       <c r="C14" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="I14" t="s">
         <v>660</v>
       </c>
       <c r="J14" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B15" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C15" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I15" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="J15" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B16" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C16" t="s">
         <v>670</v>
       </c>
       <c r="I16" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="J16" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1024</v>
+        <v>650</v>
       </c>
       <c r="B17" t="s">
-        <v>1025</v>
+        <v>660</v>
       </c>
       <c r="C17" t="s">
         <v>670</v>
       </c>
       <c r="I17" t="s">
-        <v>1025</v>
+        <v>660</v>
       </c>
       <c r="J17" t="s">
-        <v>1025</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>651</v>
+        <v>1024</v>
       </c>
       <c r="B18" t="s">
-        <v>665</v>
+        <v>1025</v>
       </c>
       <c r="C18" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I18" t="s">
-        <v>675</v>
+        <v>1025</v>
       </c>
       <c r="J18" t="s">
-        <v>672</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="B19" t="s">
         <v>665</v>
@@ -5871,52 +5871,69 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>649</v>
+        <v>693</v>
       </c>
       <c r="B20" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="C20" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="I20" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="J20" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B21" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C21" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I21" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="J21" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>648</v>
+      </c>
+      <c r="B22" t="s">
+        <v>664</v>
+      </c>
+      <c r="C22" t="s">
+        <v>670</v>
+      </c>
+      <c r="I22" t="s">
+        <v>674</v>
+      </c>
+      <c r="J22" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>659</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>667</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>672</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>675</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J23" t="s">
         <v>672</v>
       </c>
     </row>
@@ -6251,8 +6268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A607C59C-9131-3A41-BBFB-E38E1FFB1A83}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6464,7 +6481,7 @@
         <v>1121</v>
       </c>
       <c r="H7" t="s">
-        <v>1268</v>
+        <v>340</v>
       </c>
       <c r="I7" t="s">
         <v>1122</v>
@@ -6472,13 +6489,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B8" t="s">
         <v>1095</v>
       </c>
       <c r="C8" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D8" t="s">
         <v>1095</v>
@@ -6493,7 +6510,7 @@
         <v>1095</v>
       </c>
       <c r="H8" t="s">
-        <v>1271</v>
+        <v>1467</v>
       </c>
       <c r="I8" t="s">
         <v>1097</v>
@@ -6501,7 +6518,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B9" t="s">
         <v>1213</v>
@@ -6530,7 +6547,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B10" t="s">
         <v>1210</v>
@@ -6559,13 +6576,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B11" t="s">
         <v>1130</v>
       </c>
       <c r="C11" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D11" t="s">
         <v>1131</v>
@@ -6588,7 +6605,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B12" t="s">
         <v>1135</v>
@@ -6617,7 +6634,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B13" t="s">
         <v>1141</v>
@@ -6646,7 +6663,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B14" t="s">
         <v>1144</v>
@@ -6675,13 +6692,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B15" t="s">
         <v>1147</v>
       </c>
       <c r="C15" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D15" t="s">
         <v>1149</v>
@@ -6704,7 +6721,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B16" t="s">
         <v>1152</v>
@@ -6733,7 +6750,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B17" t="s">
         <v>1155</v>
@@ -6762,7 +6779,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B18" t="s">
         <v>1161</v>
@@ -6791,13 +6808,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B19" t="s">
         <v>1165</v>
       </c>
       <c r="C19" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D19" t="s">
         <v>1166</v>
@@ -6820,7 +6837,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B20" t="s">
         <v>1170</v>
@@ -6849,7 +6866,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B21" t="s">
         <v>1223</v>
@@ -6878,7 +6895,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B22" t="s">
         <v>1216</v>
@@ -6907,7 +6924,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B23" t="s">
         <v>880</v>
@@ -6936,7 +6953,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B24" t="s">
         <v>1092</v>
@@ -6965,7 +6982,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B25" t="s">
         <v>1098</v>
@@ -6994,7 +7011,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B26" t="s">
         <v>1107</v>
@@ -7023,7 +7040,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B27" t="s">
         <v>1104</v>
@@ -7052,7 +7069,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B28" t="s">
         <v>1068</v>
@@ -7081,7 +7098,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B29" t="s">
         <v>1062</v>
@@ -7110,7 +7127,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B30" t="s">
         <v>1059</v>
@@ -7131,15 +7148,15 @@
         <v>1059</v>
       </c>
       <c r="H30" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I30" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B31" t="s">
         <v>1077</v>
@@ -7163,12 +7180,12 @@
         <v>1078</v>
       </c>
       <c r="I31" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B32" t="s">
         <v>1060</v>
@@ -7192,12 +7209,12 @@
         <v>1061</v>
       </c>
       <c r="I32" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B33" t="s">
         <v>1075</v>
@@ -7218,7 +7235,7 @@
         <v>1075</v>
       </c>
       <c r="H33" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I33" t="s">
         <v>1076</v>
@@ -7226,36 +7243,36 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I34" t="s">
         <v>1305</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="B35" t="s">
         <v>1065</v>
@@ -7284,152 +7301,152 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E36" t="s">
         <v>1310</v>
       </c>
-      <c r="B36" t="s">
+      <c r="F36" t="s">
         <v>1311</v>
       </c>
-      <c r="C36" t="s">
+      <c r="G36" t="s">
         <v>1312</v>
       </c>
-      <c r="D36" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
         <v>1313</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
         <v>1314</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1315</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H37" t="s">
         <v>1318</v>
       </c>
-      <c r="B37" t="s">
+      <c r="I37" t="s">
         <v>1319</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1319</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1321</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F38" t="s">
         <v>1323</v>
       </c>
-      <c r="B38" t="s">
+      <c r="G38" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H38" t="s">
         <v>1324</v>
       </c>
-      <c r="C38" t="s">
+      <c r="I38" t="s">
         <v>1325</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1327</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D39" t="s">
         <v>1329</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
         <v>1330</v>
       </c>
-      <c r="C39" t="s">
+      <c r="F39" t="s">
         <v>1331</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
         <v>1332</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>1333</v>
       </c>
-      <c r="F39" t="s">
+      <c r="I39" t="s">
         <v>1334</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="B40" t="s">
         <v>1079</v>
       </c>
       <c r="C40" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F40" t="s">
         <v>1339</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
         <v>1340</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>1341</v>
       </c>
-      <c r="F40" t="s">
+      <c r="I40" t="s">
         <v>1342</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1343</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="B41" t="s">
         <v>1080</v>
@@ -7450,218 +7467,218 @@
         <v>1080</v>
       </c>
       <c r="H41" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="I41" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D42" t="s">
         <v>1349</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>1350</v>
       </c>
-      <c r="C42" t="s">
+      <c r="F42" t="s">
         <v>1351</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
         <v>1352</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>1353</v>
       </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
         <v>1354</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1355</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D43" t="s">
         <v>1358</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>1359</v>
       </c>
-      <c r="C43" t="s">
+      <c r="F43" t="s">
         <v>1360</v>
       </c>
-      <c r="D43" t="s">
+      <c r="G43" t="s">
         <v>1361</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>1362</v>
       </c>
-      <c r="F43" t="s">
+      <c r="I43" t="s">
         <v>1363</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1364</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1365</v>
-      </c>
-      <c r="I43" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D44" t="s">
         <v>1367</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44" t="s">
         <v>1368</v>
       </c>
-      <c r="C44" t="s">
+      <c r="F44" t="s">
         <v>1369</v>
       </c>
-      <c r="D44" t="s">
+      <c r="G44" t="s">
         <v>1370</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>1371</v>
       </c>
-      <c r="F44" t="s">
+      <c r="I44" t="s">
         <v>1372</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1374</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I45" t="s">
         <v>1376</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1378</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I46" t="s">
         <v>1380</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1381</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1381</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1381</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E47" t="s">
         <v>1384</v>
       </c>
-      <c r="B47" t="s">
+      <c r="F47" t="s">
         <v>1385</v>
       </c>
-      <c r="C47" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="G47" t="s">
         <v>1386</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>1387</v>
       </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
         <v>1388</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1389</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I47" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F48" t="s">
         <v>1392</v>
       </c>
-      <c r="B48" t="s">
+      <c r="G48" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H48" t="s">
         <v>1393</v>
       </c>
-      <c r="C48" t="s">
+      <c r="I48" t="s">
         <v>1394</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1395</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1396</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="B49" t="s">
         <v>1179</v>
@@ -7682,15 +7699,15 @@
         <v>1179</v>
       </c>
       <c r="H49" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="I49" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="B50" t="s">
         <v>1177</v>
@@ -7711,7 +7728,7 @@
         <v>1177</v>
       </c>
       <c r="H50" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I50" t="s">
         <v>1178</v>
@@ -7719,7 +7736,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="B51" t="s">
         <v>1192</v>
@@ -7740,44 +7757,44 @@
         <v>1192</v>
       </c>
       <c r="H51" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I51" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I52" t="s">
         <v>1406</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1407</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1408</v>
-      </c>
-      <c r="I52" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="B53" t="s">
         <v>1195</v>
@@ -7798,7 +7815,7 @@
         <v>1195</v>
       </c>
       <c r="H53" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I53" t="s">
         <v>1196</v>
@@ -7806,65 +7823,65 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I54" t="s">
         <v>1412</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1413</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I55" t="s">
         <v>1416</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1417</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1417</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1417</v>
-      </c>
-      <c r="H55" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I55" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B56" t="s">
         <v>1186</v>
@@ -7885,15 +7902,15 @@
         <v>1186</v>
       </c>
       <c r="H56" t="s">
-        <v>1421</v>
+        <v>1469</v>
       </c>
       <c r="I56" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="B57" t="s">
         <v>1189</v>
@@ -7914,7 +7931,7 @@
         <v>1189</v>
       </c>
       <c r="H57" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="I57" t="s">
         <v>1190</v>
@@ -7922,7 +7939,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="B58" t="s">
         <v>1181</v>
@@ -7943,15 +7960,15 @@
         <v>1181</v>
       </c>
       <c r="H58" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="I58" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="B59" t="s">
         <v>1183</v>
@@ -7972,15 +7989,15 @@
         <v>1183</v>
       </c>
       <c r="H59" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="I59" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B60" t="s">
         <v>1184</v>
@@ -8001,7 +8018,7 @@
         <v>1184</v>
       </c>
       <c r="H60" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="I60" t="s">
         <v>1185</v>
@@ -8009,7 +8026,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="B61" t="s">
         <v>1193</v>
@@ -8030,7 +8047,7 @@
         <v>1193</v>
       </c>
       <c r="H61" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="I61" t="s">
         <v>1194</v>
@@ -8038,7 +8055,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="B62" t="s">
         <v>1187</v>
@@ -8059,7 +8076,7 @@
         <v>1187</v>
       </c>
       <c r="H62" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="I62" t="s">
         <v>1188</v>
@@ -8067,36 +8084,36 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I63" t="s">
         <v>1437</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G63" t="s">
-        <v>1438</v>
-      </c>
-      <c r="H63" t="s">
-        <v>1440</v>
-      </c>
-      <c r="I63" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="B64" t="s">
         <v>1182</v>
@@ -8117,44 +8134,44 @@
         <v>1182</v>
       </c>
       <c r="H64" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="I64" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="B65" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="C65" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="D65" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="E65" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="F65" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="G65" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="H65" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="I65" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="B66" t="s">
         <v>1191</v>
@@ -8175,73 +8192,73 @@
         <v>1191</v>
       </c>
       <c r="H66" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="I66" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="B67" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="C67" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="D67" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="E67" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="F67" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="G67" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="H67" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="I67" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="B68" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="C68" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="D68" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="E68" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="F68" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="G68" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="H68" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="I68" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B69" t="s">
         <v>1180</v>
@@ -8262,68 +8279,68 @@
         <v>1180</v>
       </c>
       <c r="H69" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="I69" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="B70" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="C70" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="D70" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="E70" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="F70" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="G70" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="H70" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="I70" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="B71" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="C71" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="D71" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="E71" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="F71" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="G71" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H71" t="s">
         <v>1209</v>
       </c>
       <c r="I71" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
   </sheetData>

--- a/src/stp/database/localization.xlsx
+++ b/src/stp/database/localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B3FB7F-D59A-344F-B5AA-0FA235FB7F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3ED1B-AB03-0D41-A3F6-11600B66F023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="34200" windowHeight="19300" activeTab="2" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="34200" windowHeight="19300" activeTab="9" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
   </bookViews>
   <sheets>
     <sheet name="Competition" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="1471">
   <si>
     <t>key</t>
   </si>
@@ -4466,6 +4466,9 @@
   </si>
   <si>
     <t>ラザフォード、NJ</t>
+  </si>
+  <si>
+    <t>third.team.name</t>
   </si>
 </sst>
 </file>
@@ -4665,49 +4668,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4760,6 +4720,49 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -4902,7 +4905,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A92B97DC-54AE-2A49-B366-A6504207E4CF}" name="Venue" displayName="Venue" ref="A1:I71" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A92B97DC-54AE-2A49-B366-A6504207E4CF}" name="Venue" displayName="Venue" ref="A1:I71" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:I71" xr:uid="{A92B97DC-54AE-2A49-B366-A6504207E4CF}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B0B3E3B6-7AC0-B341-AA47-E0828ED515C1}" name="key"/>
@@ -4966,7 +4969,7 @@
     <tableColumn id="5" xr3:uid="{0318B88A-79B0-4BA8-931F-32E598CDDD83}" name="fr"/>
     <tableColumn id="6" xr3:uid="{7FB94F46-D9D6-4FFA-A68A-D9C22DD62960}" name="de"/>
     <tableColumn id="7" xr3:uid="{8DA7014B-3E29-4B6A-905E-FD5A34D770FA}" name="nl"/>
-    <tableColumn id="8" xr3:uid="{21D35627-DEB2-4E21-A7A7-5800DA843F2D}" name="ja" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{21D35627-DEB2-4E21-A7A7-5800DA843F2D}" name="ja" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{0E0ECA8B-5B6D-4A0F-9BA3-F5F697D5FD39}" name="fa"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5014,10 +5017,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA8C5955-F911-B84D-96F6-FB2E611CA222}" name="Table8" displayName="Table8" ref="A1:I42" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA8C5955-F911-B84D-96F6-FB2E611CA222}" name="Table8" displayName="Table8" ref="A1:I42" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="A1:I42" xr:uid="{BA8C5955-F911-B84D-96F6-FB2E611CA222}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D098A691-2771-6641-BDA7-287210E02E79}" name="key" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{D098A691-2771-6641-BDA7-287210E02E79}" name="key" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E3E8593F-CDB5-CA4C-B2DF-C5D167E6F581}" name="en"/>
     <tableColumn id="3" xr3:uid="{583B6CFD-84CD-BB44-88B6-0A0D3BA2E05E}" name="es"/>
     <tableColumn id="4" xr3:uid="{3139A9B8-E0C7-184A-8291-97B79E51FC05}" name="it"/>
@@ -5516,10 +5519,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4B28FF-857C-4B73-BD2F-84CA03D2F2FC}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5687,13 +5690,13 @@
         <v>1466</v>
       </c>
       <c r="B9" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="I9" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="J9" t="s">
         <v>672</v>
@@ -5935,6 +5938,23 @@
       </c>
       <c r="J23" t="s">
         <v>672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B24" t="s">
+        <v>662</v>
+      </c>
+      <c r="C24" t="s">
+        <v>670</v>
+      </c>
+      <c r="I24" t="s">
+        <v>673</v>
+      </c>
+      <c r="J24" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -6268,7 +6288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A607C59C-9131-3A41-BBFB-E38E1FFB1A83}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>

--- a/src/stp/database/localization.xlsx
+++ b/src/stp/database/localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3ED1B-AB03-0D41-A3F6-11600B66F023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80819801-5582-4045-B89E-03ED3430F486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="34200" windowHeight="19300" activeTab="9" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1472">
   <si>
     <t>key</t>
   </si>
@@ -4469,6 +4469,9 @@
   </si>
   <si>
     <t>third.team.name</t>
+  </si>
+  <si>
+    <t>group.team.place</t>
   </si>
 </sst>
 </file>
@@ -4865,10 +4868,10 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}" name="Table1" displayName="Table1" ref="A1:J23" totalsRowShown="0">
-  <autoFilter ref="A1:J23" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
-    <sortCondition ref="A1:A23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}" name="Table1" displayName="Table1" ref="A1:J24" totalsRowShown="0">
+  <autoFilter ref="A1:J24" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
+    <sortCondition ref="A1:A24"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4614A9ED-E890-4F3B-BD19-53C40876125F}" name="key"/>
@@ -5519,10 +5522,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4B28FF-857C-4B73-BD2F-84CA03D2F2FC}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5823,13 +5826,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>650</v>
+        <v>1471</v>
       </c>
       <c r="B17" t="s">
         <v>660</v>
       </c>
       <c r="C17" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I17" t="s">
         <v>660</v>
@@ -5840,41 +5843,41 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1024</v>
+        <v>650</v>
       </c>
       <c r="B18" t="s">
-        <v>1025</v>
+        <v>660</v>
       </c>
       <c r="C18" t="s">
         <v>670</v>
       </c>
       <c r="I18" t="s">
-        <v>1025</v>
+        <v>660</v>
       </c>
       <c r="J18" t="s">
-        <v>1025</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>651</v>
+        <v>1024</v>
       </c>
       <c r="B19" t="s">
-        <v>665</v>
+        <v>1025</v>
       </c>
       <c r="C19" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I19" t="s">
-        <v>675</v>
+        <v>1025</v>
       </c>
       <c r="J19" t="s">
-        <v>672</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="B20" t="s">
         <v>665</v>
@@ -5891,69 +5894,86 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>649</v>
+        <v>693</v>
       </c>
       <c r="B21" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="C21" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="I21" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="J21" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B22" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C22" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I22" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="J22" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="B23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C23" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J23" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>659</v>
+      </c>
+      <c r="B24" t="s">
+        <v>667</v>
+      </c>
+      <c r="C24" t="s">
+        <v>672</v>
+      </c>
+      <c r="I24" t="s">
+        <v>675</v>
+      </c>
+      <c r="J24" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>1470</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>662</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>670</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I25" t="s">
         <v>673</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" t="s">
         <v>670</v>
       </c>
     </row>

--- a/src/stp/database/localization.xlsx
+++ b/src/stp/database/localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80819801-5582-4045-B89E-03ED3430F486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E301612A-3E6F-0141-9135-496D057F03C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="34200" windowHeight="19300" activeTab="9" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="19300" activeTab="9" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
   </bookViews>
   <sheets>
     <sheet name="Competition" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1473">
   <si>
     <t>key</t>
   </si>
@@ -4472,6 +4472,9 @@
   </si>
   <si>
     <t>group.team.place</t>
+  </si>
+  <si>
+    <t>group.team.point-total</t>
   </si>
 </sst>
 </file>
@@ -4868,10 +4871,10 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}" name="Table1" displayName="Table1" ref="A1:J24" totalsRowShown="0">
-  <autoFilter ref="A1:J24" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
-    <sortCondition ref="A1:A24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}" name="Table1" displayName="Table1" ref="A1:J25" totalsRowShown="0">
+  <autoFilter ref="A1:J25" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
+    <sortCondition ref="A1:A25"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4614A9ED-E890-4F3B-BD19-53C40876125F}" name="key"/>
@@ -5522,10 +5525,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4B28FF-857C-4B73-BD2F-84CA03D2F2FC}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5843,58 +5846,58 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>650</v>
+        <v>1472</v>
       </c>
       <c r="B18" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C18" t="s">
         <v>670</v>
       </c>
       <c r="I18" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="J18" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1024</v>
+        <v>650</v>
       </c>
       <c r="B19" t="s">
-        <v>1025</v>
+        <v>660</v>
       </c>
       <c r="C19" t="s">
         <v>670</v>
       </c>
       <c r="I19" t="s">
-        <v>1025</v>
+        <v>660</v>
       </c>
       <c r="J19" t="s">
-        <v>1025</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>651</v>
+        <v>1024</v>
       </c>
       <c r="B20" t="s">
-        <v>665</v>
+        <v>1025</v>
       </c>
       <c r="C20" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I20" t="s">
-        <v>675</v>
+        <v>1025</v>
       </c>
       <c r="J20" t="s">
-        <v>672</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="B21" t="s">
         <v>665</v>
@@ -5911,69 +5914,86 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>649</v>
+        <v>693</v>
       </c>
       <c r="B22" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="C22" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="I22" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="J22" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B23" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C23" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I23" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="J23" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="B24" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>659</v>
+      </c>
+      <c r="B25" t="s">
+        <v>667</v>
+      </c>
+      <c r="C25" t="s">
+        <v>672</v>
+      </c>
+      <c r="I25" t="s">
+        <v>675</v>
+      </c>
+      <c r="J25" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>1470</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>662</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>670</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I26" t="s">
         <v>673</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J26" t="s">
         <v>670</v>
       </c>
     </row>

--- a/src/stp/database/localization.xlsx
+++ b/src/stp/database/localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E301612A-3E6F-0141-9135-496D057F03C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3668C513-6395-554B-9725-D61E9F37B706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="19300" activeTab="9" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
   </bookViews>
@@ -5528,7 +5528,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5849,16 +5849,16 @@
         <v>1472</v>
       </c>
       <c r="B18" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C18" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I18" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="J18" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">

--- a/src/stp/database/localization.xlsx
+++ b/src/stp/database/localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3668C513-6395-554B-9725-D61E9F37B706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CD0A84-7C56-A644-A3BB-9BBDF23FF1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="19300" activeTab="9" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="19300" activeTab="6" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
   </bookViews>
   <sheets>
     <sheet name="Competition" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1481">
   <si>
     <t>key</t>
   </si>
@@ -4475,6 +4475,30 @@
   </si>
   <si>
     <t>group.team.point-total</t>
+  </si>
+  <si>
+    <t>after-extra-time</t>
+  </si>
+  <si>
+    <t>(AET)</t>
+  </si>
+  <si>
+    <t>(DP)</t>
+  </si>
+  <si>
+    <t>(DTS)</t>
+  </si>
+  <si>
+    <t>(AP)</t>
+  </si>
+  <si>
+    <t>(NV)</t>
+  </si>
+  <si>
+    <t>(延長)</t>
+  </si>
+  <si>
+    <t>(و.ا)</t>
   </si>
 </sst>
 </file>
@@ -4983,8 +5007,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D0574641-9580-4C09-8594-7E1FA61261E7}" name="Table5" displayName="Table5" ref="A1:J2" totalsRowShown="0">
-  <autoFilter ref="A1:J2" xr:uid="{D0574641-9580-4C09-8594-7E1FA61261E7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D0574641-9580-4C09-8594-7E1FA61261E7}" name="Table5" displayName="Table5" ref="A1:J3" totalsRowShown="0">
+  <autoFilter ref="A1:J3" xr:uid="{D0574641-9580-4C09-8594-7E1FA61261E7}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F200773D-7393-4EE7-A925-5C77D146CD64}" name="key"/>
     <tableColumn id="2" xr3:uid="{9874EBD6-C206-4CB9-B976-F2D4FA230E33}" name="en"/>
@@ -5527,7 +5551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4B28FF-857C-4B73-BD2F-84CA03D2F2FC}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+    <sheetView zoomScale="145" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:J18"/>
     </sheetView>
   </sheetViews>
@@ -9026,10 +9050,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E988A0-3272-4A07-B301-DE09586F293E}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9099,6 +9123,35 @@
       </c>
       <c r="J2" t="s">
         <v>682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1480</v>
       </c>
     </row>
   </sheetData>

--- a/src/stp/database/localization.xlsx
+++ b/src/stp/database/localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CD0A84-7C56-A644-A3BB-9BBDF23FF1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A03379F-88F9-7A42-9EAF-C362606953FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="19300" activeTab="6" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="34200" windowHeight="19300" activeTab="9" xr2:uid="{0FA07794-2DE1-4C86-96C2-0907800AE218}"/>
   </bookViews>
   <sheets>
     <sheet name="Competition" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="1482">
   <si>
     <t>key</t>
   </si>
@@ -4499,6 +4499,9 @@
   </si>
   <si>
     <t>(و.ا)</t>
+  </si>
+  <si>
+    <t>page.footer</t>
   </si>
 </sst>
 </file>
@@ -4895,8 +4898,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}" name="Table1" displayName="Table1" ref="A1:J25" totalsRowShown="0">
-  <autoFilter ref="A1:J25" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}" name="Table1" displayName="Table1" ref="A1:J26" totalsRowShown="0">
+  <autoFilter ref="A1:J26" xr:uid="{3CF181BA-F3A5-4585-9FD3-16906D63F76D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
     <sortCondition ref="A1:A25"/>
   </sortState>
@@ -5549,10 +5552,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4B28FF-857C-4B73-BD2F-84CA03D2F2FC}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:J18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6006,18 +6009,26 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B26" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>1470</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>662</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>670</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>673</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J27" t="s">
         <v>670</v>
       </c>
     </row>
@@ -9052,7 +9063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E988A0-3272-4A07-B301-DE09586F293E}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
